--- a/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
+++ b/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6626" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6626" uniqueCount="663">
   <si>
     <t>Path</t>
   </si>
@@ -961,6 +961,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -7925,10 +7931,10 @@
         <v>305</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8003,7 +8009,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -8056,7 +8062,7 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -8290,7 +8296,7 @@
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>45</v>
@@ -8407,7 +8413,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>45</v>
@@ -8603,7 +8609,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8722,7 +8728,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8745,19 +8751,19 @@
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8806,7 +8812,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8821,19 +8827,19 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8841,11 +8847,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8864,19 +8870,19 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8925,7 +8931,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8940,19 +8946,19 @@
         <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8960,11 +8966,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8983,19 +8989,19 @@
         <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -9044,7 +9050,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -9059,19 +9065,19 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -9079,7 +9085,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9102,16 +9108,16 @@
         <v>57</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9161,7 +9167,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -9182,13 +9188,13 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -9196,7 +9202,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9219,17 +9225,17 @@
         <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9278,7 +9284,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9293,19 +9299,19 @@
         <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -9313,7 +9319,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9336,19 +9342,19 @@
         <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9385,17 +9391,17 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9404,36 +9410,36 @@
         <v>56</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9455,19 +9461,19 @@
         <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9495,10 +9501,10 @@
         <v>136</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9516,7 +9522,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9525,33 +9531,33 @@
         <v>56</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9666,7 +9672,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9783,7 +9789,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9806,19 +9812,19 @@
         <v>57</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9867,7 +9873,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9888,10 +9894,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9902,7 +9908,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9928,22 +9934,22 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>45</v>
@@ -9967,10 +9973,10 @@
         <v>136</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9988,7 +9994,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -10009,10 +10015,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -10023,7 +10029,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10049,14 +10055,14 @@
         <v>120</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10105,7 +10111,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10126,10 +10132,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -10140,7 +10146,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10166,21 +10172,21 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>45</v>
@@ -10222,7 +10228,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10231,7 +10237,7 @@
         <v>56</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -10243,10 +10249,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10257,7 +10263,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10283,23 +10289,23 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>45</v>
@@ -10341,7 +10347,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10362,10 +10368,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10376,7 +10382,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10402,16 +10408,16 @@
         <v>142</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10439,10 +10445,10 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10460,7 +10466,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10469,13 +10475,13 @@
         <v>56</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>45</v>
@@ -10484,7 +10490,7 @@
         <v>99</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10495,7 +10501,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10610,7 +10616,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10727,7 +10733,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10846,7 +10852,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10961,7 +10967,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11078,7 +11084,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11197,7 +11203,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11314,7 +11320,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11431,7 +11437,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11548,7 +11554,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11667,7 +11673,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11786,11 +11792,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11812,14 +11818,14 @@
         <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11847,10 +11853,10 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11868,7 +11874,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11886,24 +11892,24 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11929,14 +11935,14 @@
         <v>120</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11985,7 +11991,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12000,16 +12006,16 @@
         <v>45</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12020,7 +12026,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12046,13 +12052,13 @@
         <v>142</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12078,13 +12084,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -12102,7 +12108,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12120,24 +12126,24 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12252,7 +12258,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12369,7 +12375,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12441,7 +12447,7 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AB87" s="2"/>
       <c r="AC87" t="s" s="2">
@@ -12486,7 +12492,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>301</v>
@@ -12548,13 +12554,13 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12607,7 +12613,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12722,7 +12728,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12837,7 +12843,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>304</v>
@@ -12865,10 +12871,10 @@
         <v>305</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12943,7 +12949,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12954,7 +12960,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12996,7 +13002,7 @@
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>45</v>
@@ -13073,7 +13079,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13190,7 +13196,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13307,7 +13313,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13424,7 +13430,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13543,7 +13549,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13662,7 +13668,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13688,16 +13694,16 @@
         <v>142</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13722,13 +13728,13 @@
         <v>45</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -13746,7 +13752,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13767,10 +13773,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -13781,7 +13787,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13896,7 +13902,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14013,7 +14019,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14085,7 +14091,7 @@
         <v>45</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
@@ -14130,7 +14136,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>301</v>
@@ -14192,13 +14198,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14251,7 +14257,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14366,7 +14372,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14481,7 +14487,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>304</v>
@@ -14509,10 +14515,10 @@
         <v>305</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14587,7 +14593,7 @@
         <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14598,7 +14604,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14640,7 +14646,7 @@
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>45</v>
@@ -14717,7 +14723,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14834,7 +14840,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14951,7 +14957,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15068,7 +15074,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15187,7 +15193,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15306,7 +15312,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15329,16 +15335,16 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15388,7 +15394,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15406,24 +15412,24 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15446,16 +15452,16 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15505,7 +15511,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15523,24 +15529,24 @@
         <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15563,19 +15569,19 @@
         <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -15624,7 +15630,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15636,7 +15642,7 @@
         <v>45</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>45</v>
@@ -15645,10 +15651,10 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15659,7 +15665,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15774,7 +15780,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15891,11 +15897,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15920,7 +15926,7 @@
         <v>108</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>105</v>
@@ -15973,7 +15979,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16008,7 +16014,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16031,13 +16037,13 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16088,7 +16094,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16097,7 +16103,7 @@
         <v>56</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>45</v>
@@ -16109,10 +16115,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -16123,7 +16129,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16146,13 +16152,13 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16203,31 +16209,31 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AF119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="AM119" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16238,7 +16244,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16264,16 +16270,16 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16301,10 +16307,10 @@
         <v>79</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>45</v>
@@ -16322,7 +16328,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16340,13 +16346,13 @@
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16357,7 +16363,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16383,16 +16389,16 @@
         <v>142</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16417,13 +16423,13 @@
         <v>45</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>45</v>
@@ -16441,7 +16447,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16459,13 +16465,13 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16476,7 +16482,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16499,17 +16505,17 @@
         <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16558,7 +16564,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16582,7 +16588,7 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16593,7 +16599,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16619,10 +16625,10 @@
         <v>120</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16673,7 +16679,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16694,10 +16700,10 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
@@ -16708,7 +16714,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16731,19 +16737,19 @@
         <v>57</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -16792,7 +16798,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16804,7 +16810,7 @@
         <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>45</v>
@@ -16813,10 +16819,10 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
@@ -16827,7 +16833,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16942,7 +16948,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17059,11 +17065,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17088,7 +17094,7 @@
         <v>108</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>105</v>
@@ -17141,7 +17147,7 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17176,7 +17182,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17202,23 +17208,23 @@
         <v>75</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>45</v>
@@ -17239,10 +17245,10 @@
         <v>136</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>45</v>
@@ -17260,7 +17266,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17284,7 +17290,7 @@
         <v>99</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -17295,7 +17301,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17318,13 +17324,13 @@
         <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -17375,7 +17381,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>56</v>
@@ -17399,7 +17405,7 @@
         <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17410,7 +17416,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17433,19 +17439,19 @@
         <v>57</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
@@ -17494,7 +17500,7 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17506,7 +17512,7 @@
         <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>45</v>
@@ -17515,10 +17521,10 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -17529,7 +17535,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17644,7 +17650,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17761,11 +17767,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17790,7 +17796,7 @@
         <v>108</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>105</v>
@@ -17843,7 +17849,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17878,7 +17884,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17904,10 +17910,10 @@
         <v>142</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
@@ -17958,7 +17964,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>56</v>
@@ -17976,7 +17982,7 @@
         <v>45</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>282</v>
@@ -17993,7 +17999,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18108,7 +18114,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18225,7 +18231,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18342,7 +18348,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>290</v>
@@ -18410,7 +18416,7 @@
         <v>291</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>45</v>
@@ -18463,7 +18469,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18578,7 +18584,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18695,7 +18701,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18814,7 +18820,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18931,7 +18937,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19048,7 +19054,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19165,7 +19171,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19284,7 +19290,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>301</v>
@@ -19405,7 +19411,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19520,7 +19526,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19635,7 +19641,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>304</v>
@@ -19663,10 +19669,10 @@
         <v>305</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19741,7 +19747,7 @@
         <v>45</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>45</v>
@@ -19752,7 +19758,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19794,7 +19800,7 @@
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R150" t="s" s="2">
         <v>45</v>
@@ -19871,7 +19877,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19988,7 +19994,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20105,7 +20111,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20222,7 +20228,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20341,7 +20347,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20460,7 +20466,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20483,19 +20489,19 @@
         <v>57</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>45</v>
@@ -20532,17 +20538,17 @@
         <v>45</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AB156" s="2"/>
       <c r="AC156" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>43</v>
@@ -20560,27 +20566,27 @@
         <v>45</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>45</v>
@@ -20602,19 +20608,19 @@
         <v>57</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>45</v>
@@ -20642,10 +20648,10 @@
         <v>136</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>45</v>
@@ -20663,7 +20669,7 @@
         <v>45</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>43</v>
@@ -20681,24 +20687,24 @@
         <v>45</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20813,7 +20819,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20930,7 +20936,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20953,19 +20959,19 @@
         <v>57</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>45</v>
@@ -21014,7 +21020,7 @@
         <v>45</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>43</v>
@@ -21035,10 +21041,10 @@
         <v>45</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>45</v>
@@ -21049,7 +21055,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21075,22 +21081,22 @@
         <v>75</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P161" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q161" t="s" s="2">
         <v>45</v>
@@ -21114,10 +21120,10 @@
         <v>136</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>45</v>
@@ -21135,7 +21141,7 @@
         <v>45</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>43</v>
@@ -21156,10 +21162,10 @@
         <v>45</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>45</v>
@@ -21170,7 +21176,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21196,14 +21202,14 @@
         <v>120</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>45</v>
@@ -21252,7 +21258,7 @@
         <v>45</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>43</v>
@@ -21273,10 +21279,10 @@
         <v>45</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>45</v>
@@ -21287,7 +21293,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21313,21 +21319,21 @@
         <v>69</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="R163" t="s" s="2">
         <v>45</v>
@@ -21369,7 +21375,7 @@
         <v>45</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>43</v>
@@ -21378,7 +21384,7 @@
         <v>56</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>45</v>
@@ -21390,10 +21396,10 @@
         <v>45</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>45</v>
@@ -21404,7 +21410,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21430,16 +21436,16 @@
         <v>75</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>45</v>
@@ -21467,10 +21473,10 @@
         <v>136</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>45</v>
@@ -21488,7 +21494,7 @@
         <v>45</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>43</v>
@@ -21509,10 +21515,10 @@
         <v>45</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>45</v>
@@ -21523,7 +21529,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21549,16 +21555,16 @@
         <v>142</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>45</v>
@@ -21586,10 +21592,10 @@
         <v>79</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>45</v>
@@ -21607,7 +21613,7 @@
         <v>45</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>43</v>
@@ -21616,7 +21622,7 @@
         <v>56</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>45</v>
@@ -21631,7 +21637,7 @@
         <v>99</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>45</v>
@@ -21642,7 +21648,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21757,7 +21763,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21874,7 +21880,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21993,7 +21999,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22108,7 +22114,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22225,7 +22231,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22344,7 +22350,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22461,7 +22467,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22578,7 +22584,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22695,7 +22701,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22814,7 +22820,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22933,11 +22939,11 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22959,16 +22965,16 @@
         <v>142</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>45</v>
@@ -22996,10 +23002,10 @@
         <v>79</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>45</v>
@@ -23017,7 +23023,7 @@
         <v>45</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>43</v>
@@ -23035,24 +23041,24 @@
         <v>45</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23078,16 +23084,16 @@
         <v>45</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>45</v>
@@ -23136,7 +23142,7 @@
         <v>45</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>43</v>
@@ -23157,10 +23163,10 @@
         <v>45</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>45</v>

--- a/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
+++ b/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
@@ -2226,17 +2226,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.7421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2247,22 +2247,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
+++ b/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
@@ -2226,17 +2226,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.7421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.74609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2247,22 +2247,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
+++ b/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
@@ -2223,17 +2223,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.7421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.74609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2244,22 +2244,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
+++ b/docs/CareConnect-OxygenSaturation-Observation-1.xlsx
@@ -2223,17 +2223,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.7421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2244,22 +2244,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>
